--- a/Documents/DataDictionary.xlsx
+++ b/Documents/DataDictionary.xlsx
@@ -1,21 +1,361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UserLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="UserInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="ClubInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="UserLevel" sheetId="4" r:id="rId4"/>
+    <sheet name="UserToClub" sheetId="5" r:id="rId5"/>
+    <sheet name="GameInfo" sheetId="6" r:id="rId6"/>
+    <sheet name="UserSignUp" sheetId="7" r:id="rId7"/>
+    <sheet name="UserSignUpHistory" sheetId="8" r:id="rId8"/>
+    <sheet name="GroundInfo" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="109">
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>CBMG_TB_UserLogin</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>Primary key, GUID.</t>
+  </si>
+  <si>
+    <t>USER_LOGIN_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(16)</t>
+  </si>
+  <si>
+    <t>Allow null</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>USER_LOGIN_PWD</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>Login name.</t>
+  </si>
+  <si>
+    <t>MD5 encrypted string.</t>
+  </si>
+  <si>
+    <t>CREATEDATE</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>Date of this data created.</t>
+  </si>
+  <si>
+    <t>MODIFY_DATE</t>
+  </si>
+  <si>
+    <t>Last modify date of this data.</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Enable status of this data.</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>Nick name of a user.</t>
+  </si>
+  <si>
+    <t>USER_SEX</t>
+  </si>
+  <si>
+    <t>User sex.</t>
+  </si>
+  <si>
+    <t>USER_BIRTHDATY</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Birthday of user.</t>
+  </si>
+  <si>
+    <t>USER_PHONE</t>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>User's phone number.</t>
+  </si>
+  <si>
+    <t>USER_EMAIL</t>
+  </si>
+  <si>
+    <t>User's email address.</t>
+  </si>
+  <si>
+    <t>USER_WX</t>
+  </si>
+  <si>
+    <t>User's wechar number.</t>
+  </si>
+  <si>
+    <t>USER_COMMENT</t>
+  </si>
+  <si>
+    <t>Self introduction.</t>
+  </si>
+  <si>
+    <t>CBMG_TB_ClubInfo</t>
+  </si>
+  <si>
+    <t>CLUB_ID</t>
+  </si>
+  <si>
+    <t>CLUB_NAME</t>
+  </si>
+  <si>
+    <t>Name of club.</t>
+  </si>
+  <si>
+    <t>CREATOR_ID</t>
+  </si>
+  <si>
+    <t>Creator of the club.</t>
+  </si>
+  <si>
+    <t>CREATOR_DATE</t>
+  </si>
+  <si>
+    <t>Date of club created.</t>
+  </si>
+  <si>
+    <t>OWNER_ID</t>
+  </si>
+  <si>
+    <t>Owner of club.</t>
+  </si>
+  <si>
+    <t>PIC_SRC</t>
+  </si>
+  <si>
+    <t>Club's logo src address.</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>Club's introduction.</t>
+  </si>
+  <si>
+    <t>CBMG_TB_UserLevel</t>
+  </si>
+  <si>
+    <t>LEVEL_ID</t>
+  </si>
+  <si>
+    <t>lEVEL_INDEX</t>
+  </si>
+  <si>
+    <t>Level index.</t>
+  </si>
+  <si>
+    <t>Club id.</t>
+  </si>
+  <si>
+    <t>LEVEL_NAME</t>
+  </si>
+  <si>
+    <t>NVARCHAR(50)</t>
+  </si>
+  <si>
+    <t>Level name.</t>
+  </si>
+  <si>
+    <t>BALANCE_RATE</t>
+  </si>
+  <si>
+    <t>DECIMAL(10, 4)</t>
+  </si>
+  <si>
+    <t>Price of a game.</t>
+  </si>
+  <si>
+    <t>Comment.</t>
+  </si>
+  <si>
+    <t>Enbale status.</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>Create data.</t>
+  </si>
+  <si>
+    <t>Last modify date.</t>
+  </si>
+  <si>
+    <t>CBMG_TB_UserToClub</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>User id.</t>
+  </si>
+  <si>
+    <t>Level id.</t>
+  </si>
+  <si>
+    <t>JOIN_DATE</t>
+  </si>
+  <si>
+    <t>Date of user join club.</t>
+  </si>
+  <si>
+    <t>CBMG_TB_GameInfo</t>
+  </si>
+  <si>
+    <t>GAME_ID</t>
+  </si>
+  <si>
+    <t>GAME_TITLE</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>Game name.</t>
+  </si>
+  <si>
+    <t>Creator id.</t>
+  </si>
+  <si>
+    <t>BEGIN_DATE</t>
+  </si>
+  <si>
+    <t>Begin date of game.</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>End date of game.</t>
+  </si>
+  <si>
+    <t>LOCK_DATE</t>
+  </si>
+  <si>
+    <t>Dead line of a user sign up game.</t>
+  </si>
+  <si>
+    <t>MAX_ATTACH_NUMBER</t>
+  </si>
+  <si>
+    <t>Max number of a user can bring in a sign up.</t>
+  </si>
+  <si>
+    <t>GROUND_COUNT</t>
+  </si>
+  <si>
+    <t>Number of game ground.</t>
+  </si>
+  <si>
+    <t>PERSON_PER_GROUND</t>
+  </si>
+  <si>
+    <t>Number of person in a ground.</t>
+  </si>
+  <si>
+    <t>BALL_INFO</t>
+  </si>
+  <si>
+    <t>Badminton information of game used.</t>
+  </si>
+  <si>
+    <t>GAME_STATE</t>
+  </si>
+  <si>
+    <t>Game status.</t>
+  </si>
+  <si>
+    <t>NVARCHAR(200)</t>
+  </si>
+  <si>
+    <t>SIGNUP_ID</t>
+  </si>
+  <si>
+    <t>Game id.</t>
+  </si>
+  <si>
+    <t>ATTACH_NUMBER</t>
+  </si>
+  <si>
+    <t>Number of person bring.</t>
+  </si>
+  <si>
+    <t>Sing up create date.</t>
+  </si>
+  <si>
+    <t>Creator of sign up.</t>
+  </si>
+  <si>
+    <t>CBMG_TB_UserSignUpHistory</t>
+  </si>
+  <si>
+    <t>HISTORY_ID</t>
+  </si>
+  <si>
+    <t>CBMG_TB_GroundInfo</t>
+  </si>
+  <si>
+    <t>GROUND_ID</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +363,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +409,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +743,1877 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/DataDictionary.xlsx
+++ b/Documents/DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="850" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserLogin" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="UserSignUp" sheetId="7" r:id="rId7"/>
     <sheet name="UserSignUpHistory" sheetId="8" r:id="rId8"/>
     <sheet name="GroundInfo" sheetId="9" r:id="rId9"/>
+    <sheet name="EnumType" sheetId="10" r:id="rId10"/>
+    <sheet name="EnumItem" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="128">
   <si>
     <t>Column Name</t>
   </si>
@@ -33,9 +35,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>CBMG_TB_UserLogin</t>
-  </si>
-  <si>
     <t>USER_ID</t>
   </si>
   <si>
@@ -144,9 +143,6 @@
     <t>Self introduction.</t>
   </si>
   <si>
-    <t>CBMG_TB_ClubInfo</t>
-  </si>
-  <si>
     <t>CLUB_ID</t>
   </si>
   <si>
@@ -186,9 +182,6 @@
     <t>Club's introduction.</t>
   </si>
   <si>
-    <t>CBMG_TB_UserLevel</t>
-  </si>
-  <si>
     <t>LEVEL_ID</t>
   </si>
   <si>
@@ -234,9 +227,6 @@
     <t>Last modify date.</t>
   </si>
   <si>
-    <t>CBMG_TB_UserToClub</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -252,9 +242,6 @@
     <t>Date of user join club.</t>
   </si>
   <si>
-    <t>CBMG_TB_GameInfo</t>
-  </si>
-  <si>
     <t>GAME_ID</t>
   </si>
   <si>
@@ -339,22 +326,94 @@
     <t>Creator of sign up.</t>
   </si>
   <si>
-    <t>CBMG_TB_UserSignUpHistory</t>
-  </si>
-  <si>
     <t>HISTORY_ID</t>
   </si>
   <si>
-    <t>CBMG_TB_GroundInfo</t>
-  </si>
-  <si>
     <t>GROUND_ID</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_UserLogin</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_ClubInfo</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_UserLevel</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_UserToClub</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_GameInfo</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_UserSignUpHistory</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_GroundInfo</t>
+  </si>
+  <si>
+    <t>GROUND_NAME</t>
+  </si>
+  <si>
+    <t>Ground name.</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Ground address.</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>Phone number.</t>
+  </si>
+  <si>
+    <t>Create date.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ENALBED</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_SysEnumType</t>
+  </si>
+  <si>
+    <t>TYPE_ID</t>
+  </si>
+  <si>
+    <t>TYPE_NAME</t>
+  </si>
+  <si>
+    <t>NVARCHAR(20)</t>
+  </si>
+  <si>
+    <t>Type name.</t>
+  </si>
+  <si>
+    <t>CBMGR_TB_SysEnumItem</t>
+  </si>
+  <si>
+    <t>Type id.</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>ITEM_NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,14 +490,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +806,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,109 +818,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,12 +1004,414 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,137 +1423,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,7 +1629,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,123 +1641,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1839,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,151 +1851,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,95 +2077,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1798,7 +2259,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,207 +2271,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2057,7 +2518,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,109 +2530,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,7 +2720,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,109 +2732,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,76 +2934,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/Documents/DataDictionary.xlsx
+++ b/Documents/DataDictionary.xlsx
@@ -4,27 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="850" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="850" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="UserLogin" sheetId="1" r:id="rId1"/>
     <sheet name="UserInfo" sheetId="2" r:id="rId2"/>
     <sheet name="ClubInfo" sheetId="3" r:id="rId3"/>
-    <sheet name="UserLevel" sheetId="4" r:id="rId4"/>
-    <sheet name="UserToClub" sheetId="5" r:id="rId5"/>
-    <sheet name="GameInfo" sheetId="6" r:id="rId6"/>
-    <sheet name="UserSignUp" sheetId="7" r:id="rId7"/>
-    <sheet name="UserSignUpHistory" sheetId="8" r:id="rId8"/>
-    <sheet name="GroundInfo" sheetId="9" r:id="rId9"/>
-    <sheet name="EnumType" sheetId="10" r:id="rId10"/>
-    <sheet name="EnumItem" sheetId="11" r:id="rId11"/>
+    <sheet name="UserToClub" sheetId="5" r:id="rId4"/>
+    <sheet name="GameInfo" sheetId="6" r:id="rId5"/>
+    <sheet name="UserSignUp" sheetId="7" r:id="rId6"/>
+    <sheet name="UserSignUpHistory" sheetId="8" r:id="rId7"/>
+    <sheet name="GroundInfo" sheetId="9" r:id="rId8"/>
+    <sheet name="EnumType" sheetId="10" r:id="rId9"/>
+    <sheet name="EnumItem" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="122">
   <si>
     <t>Column Name</t>
   </si>
@@ -185,33 +184,15 @@
     <t>LEVEL_ID</t>
   </si>
   <si>
-    <t>lEVEL_INDEX</t>
-  </si>
-  <si>
-    <t>Level index.</t>
-  </si>
-  <si>
     <t>Club id.</t>
   </si>
   <si>
-    <t>LEVEL_NAME</t>
-  </si>
-  <si>
     <t>NVARCHAR(50)</t>
   </si>
   <si>
-    <t>Level name.</t>
-  </si>
-  <si>
-    <t>BALANCE_RATE</t>
-  </si>
-  <si>
     <t>DECIMAL(10, 4)</t>
   </si>
   <si>
-    <t>Price of a game.</t>
-  </si>
-  <si>
     <t>Comment.</t>
   </si>
   <si>
@@ -221,12 +202,6 @@
     <t>CREATE_DATE</t>
   </si>
   <si>
-    <t>Create data.</t>
-  </si>
-  <si>
-    <t>Last modify date.</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -332,27 +307,6 @@
     <t>GROUND_ID</t>
   </si>
   <si>
-    <t>CBMGR_TB_UserLogin</t>
-  </si>
-  <si>
-    <t>CBMGR_TB_ClubInfo</t>
-  </si>
-  <si>
-    <t>CBMGR_TB_UserLevel</t>
-  </si>
-  <si>
-    <t>CBMGR_TB_UserToClub</t>
-  </si>
-  <si>
-    <t>CBMGR_TB_GameInfo</t>
-  </si>
-  <si>
-    <t>CBMGR_TB_UserSignUpHistory</t>
-  </si>
-  <si>
-    <t>CBMGR_TB_GroundInfo</t>
-  </si>
-  <si>
     <t>GROUND_NAME</t>
   </si>
   <si>
@@ -383,9 +337,6 @@
     <t>ENALBED</t>
   </si>
   <si>
-    <t>CBMGR_TB_SysEnumType</t>
-  </si>
-  <si>
     <t>TYPE_ID</t>
   </si>
   <si>
@@ -401,19 +352,49 @@
     <t>CBMGR_TB_SysEnumItem</t>
   </si>
   <si>
-    <t>Type id.</t>
-  </si>
-  <si>
     <t>ITEM_ID</t>
   </si>
   <si>
     <t>ITEM_NAME</t>
+  </si>
+  <si>
+    <t>CM_UserToClub</t>
+  </si>
+  <si>
+    <t>CM_UserLogin</t>
+  </si>
+  <si>
+    <t>CM_ClubInfo</t>
+  </si>
+  <si>
+    <t>ACCOUNT_BALANCE</t>
+  </si>
+  <si>
+    <t>Account balance.</t>
+  </si>
+  <si>
+    <t>CM_GameInfo</t>
+  </si>
+  <si>
+    <t>CM_UserSignUpHistory</t>
+  </si>
+  <si>
+    <t>Club that ground belong to.</t>
+  </si>
+  <si>
+    <t>CM_GroundInfo</t>
+  </si>
+  <si>
+    <t>CM_SysEnumType</t>
+  </si>
+  <si>
+    <t>Primary key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,7 +787,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1006,204 +987,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1238,58 +1025,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,13 +1084,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,10 +1101,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,7 +1198,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1629,7 +1416,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1836,23 +1623,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1874,13 +1661,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1888,115 +1675,91 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -2051,6 +1814,12 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2064,202 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,7 +1847,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2294,7 +1869,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -2317,21 +1892,21 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,12 +1920,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -2359,12 +1934,12 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -2373,12 +1948,12 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -2387,12 +1962,12 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -2401,12 +1976,12 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -2415,12 +1990,12 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
@@ -2429,26 +2004,26 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -2457,7 +2032,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2465,13 +2040,13 @@
         <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,12 +2088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,7 +2106,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2553,7 +2128,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -2576,26 +2151,26 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -2604,12 +2179,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -2618,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,12 +2290,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2308,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2755,7 +2330,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -2778,26 +2353,26 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -2806,12 +2381,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -2820,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2834,7 +2409,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,6 +2483,230 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2922,20 +2721,20 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2957,13 +2756,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -2971,87 +2770,71 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/Documents/DataDictionary.xlsx
+++ b/Documents/DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="850" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="850" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserLogin" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="123">
   <si>
     <t>Column Name</t>
   </si>
@@ -389,12 +389,15 @@
   </si>
   <si>
     <t>Primary key</t>
+  </si>
+  <si>
+    <t>Ground id.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -989,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1831,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1889,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>53</v>
@@ -1897,163 +1900,171 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -2078,6 +2089,12 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
